--- a/文档/软件开发进度表.xlsx
+++ b/文档/软件开发进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,19 +38,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办件登记模板配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+单位管理 
+模板权限配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刷身份证登录、
+姓名登录、
+登录后补充单位信息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常文件材料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸质文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干部生平管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表，查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员档案库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位档案设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案转入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案转出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案查阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案借阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>单位材料处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类别管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工期</t>
+    <t>办件分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>办件登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办件审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办件信息提取</t>
+  </si>
+  <si>
+    <t>办件分发</t>
+  </si>
+  <si>
+    <t>办件接收确认</t>
+  </si>
+  <si>
+    <t>办件管理</t>
+  </si>
+  <si>
+    <t>工资管理</t>
+  </si>
+  <si>
+    <t>市管干部工资办理登记</t>
+  </si>
+  <si>
+    <t>区管、中管干部</t>
+  </si>
+  <si>
+    <t>czc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ld</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +209,40 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +292,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -447,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -459,20 +653,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" ht="54">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="13">
+        <v>42366</v>
+      </c>
+      <c r="E3" s="13">
+        <v>42012</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="67.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>42366</v>
+      </c>
+      <c r="E5" s="13">
+        <v>42367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>42368</v>
+      </c>
+      <c r="E6" s="13">
+        <v>42369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
+        <v>42005</v>
+      </c>
+      <c r="E7" s="13">
+        <v>42006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
+        <v>42007</v>
+      </c>
+      <c r="E8" s="13">
+        <v>42008</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13">
+        <v>42009</v>
+      </c>
+      <c r="E9" s="13">
+        <v>42011</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" customHeight="1">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" customHeight="1">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24.75" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.5" customHeight="1">
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="37.5" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
